--- a/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>129,99%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>69,41%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>106,36%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>131,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,16</t>
+          <t>-2,07; 3,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,85</t>
+          <t>-0,17; 4,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,91</t>
+          <t>0,88; 5,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 9,55</t>
+          <t>2,39; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 106,79</t>
+          <t>1,58; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 249,73</t>
+          <t>2,05; 7,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 302,5</t>
+          <t>-37,55; 100,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 16,95</t>
+          <t>-7,32; 226,92</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 261,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38,71; 208,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 141,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38,85; 307,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>145,87%</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>202,1%</t>
+          <t>147,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>81,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>214,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>207,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>88,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>265,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,62</t>
+          <t>0,74; 6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,17</t>
+          <t>-0,98; 5,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,52</t>
+          <t>2,56; 9,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 24,85</t>
+          <t>2,03; 11,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 505,31</t>
+          <t>0,57; 11,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 265,36</t>
+          <t>4,91; 12,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,82; 500,44</t>
+          <t>12,93; 496,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 54,37</t>
+          <t>-26,58; 279,87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73,8; 582,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30,22; 696,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 284,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104,92; 603,94</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>122,36%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>39,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,65%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,58</t>
+          <t>-3,75; 7,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,26</t>
+          <t>-4,43; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 4,78</t>
+          <t>-4,42; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 704,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 312,35</t>
+          <t>-6,16; 4,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 251,89</t>
+          <t>-55,9; 363,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-51,44; 237,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-67,68; 278,19</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-82,6; 227,66</t>
         </is>
       </c>
     </row>
@@ -920,7 +1072,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +1082,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>133,78%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>67,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>125,97%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>123,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>154,81%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,19</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,3</t>
+          <t>0,42; 4,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,44</t>
+          <t>2,31; 5,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 6,24</t>
+          <t>3,19; 7,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 153,72</t>
+          <t>2,22; 7,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 159,78</t>
+          <t>3,45; 7,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,66; 243,44</t>
+          <t>-2,72; 135,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 9,96</t>
+          <t>6,06; 156,42</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56,56; 251,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57,42; 229,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 144,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72,17; 277,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>69,41%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>109,46%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>106,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>71,16%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>131,02%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.025008953524262</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.477186446922579</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.589426200714262</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.091063066394716</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.511709023135564</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.745553410912677</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2356205487867352</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6906094052052894</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.035032430645573</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.06357073585301</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.7198164605870478</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.282538980907889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 3,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 4,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 5,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 7,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 7,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 7,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,55; 100,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 226,92</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 261,47</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>38,71; 208,75</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>19,41; 141,2</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>38,85; 307,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.168436553263362</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2079795088696668</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.5862817009920612</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.394678021111317</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.678904106999079</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1.990168517036416</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4098678183443045</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.09148255073383428</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.02648025656304602</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3870814268623218</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.1928208446996004</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.3615166807039394</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.184259279638825</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.972919298284833</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.851238183615087</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.647336611763094</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.243792643493125</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.611406387937146</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.034313635072641</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.337163640743188</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.507923477887314</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.08747996572203</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.403294092539145</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.937834106450103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,02</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>147,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>81,04%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>214,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>207,69%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>88,97%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>265,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 5,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 9,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 11,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 11,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 12,22</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>12,93; 496,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-26,58; 279,87</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>73,8; 582,71</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>30,22; 696,27</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 284,04</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>104,92; 603,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.450207397539651</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.114609994463331</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.858959971246815</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.022075644293872</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.440242162477678</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.534494673935528</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.02148642131038</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5285160785109703</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.013074272037731</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.076929696377168</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.9003572628250971</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2.737218250129711</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>39,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11,18%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-6,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4968600855270616</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.982096315803458</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.323779623262764</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.025476651296656</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.5449608392771035</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>5.017356121651406</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2687711304111099</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4353123679047202</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.6223878306988061</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.3022078382792893</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.04858734181076419</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>1.107460558795669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 7,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 7,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 4,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 4,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-55,9; 363,59</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-51,44; 237,78</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-67,68; 278,19</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-82,6; 227,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.463686705989159</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.923080075003581</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.773502907129673</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.35976608468476</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.3769610685378</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>12.52525359190015</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.836245864692578</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.323917966422603</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>5.318540596361631</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>6.962653650149369</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.855372769784136</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>6.18455256937245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>53,64%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>125,97%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>123,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>75,1%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>154,81%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.420296942294572</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.566229959443763</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5876728208222208</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.07478704192092483</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.8344779544002664</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4560604993550338</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1448751627106195</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.01604799282473668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 5,87</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 7,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 7,28</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 7,78</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 135,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 156,42</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>56,56; 251,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>57,42; 229,87</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>29,24; 144,98</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>72,17; 277,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.191747051233103</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.01178266074342</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.284452383151597</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-5.884420543709909</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4793879586555762</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4831174546756636</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6778053959727439</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.8290781095178182</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.4420726456422</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.86380876243493</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.699552550780836</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>4.749547854412993</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.69121378142869</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.446371185618653</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.729221574769086</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>2.286461330447621</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.874940671674519</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.323048981971562</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.747933452295046</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.336111919860624</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.721035110104189</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.656629774506347</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5292655673577114</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5803851073744055</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.202156123582754</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.231037663143843</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.7598168833759205</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.578317431828304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.009947346488263906</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1643837968855338</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.111825114995387</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.187856491945998</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.237472529135739</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.424602329213566</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.0336416654503891</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06575807275051626</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.5013239091722442</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5741975537774148</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.2938158789287431</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.7245090640444142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.691080128266119</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.133912909108839</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.604827057621095</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.865298353442656</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.313566250466279</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.777829960269751</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.339658361167424</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.45934515099621</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.390407347234842</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.298684189710155</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.455682501473132</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.856508910276232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
